--- a/sekkeisyo/基本設計演習/基本設計書_プログラミング実習.xlsx
+++ b/sekkeisyo/基本設計演習/基本設計書_プログラミング実習.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\workspace\test\設計書\基本設計演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\D.I.Works_text\17_追加課題6 設計書\基本設計演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFD9B1A-4E5F-4ADE-B518-048C864CE00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8279B-B5B6-4030-BE7A-7B04B2ADCD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="774" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="774" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="99">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -811,6 +811,10 @@
   </si>
   <si>
     <t>JavaScript</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一覧画面</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1675,30 +1679,8 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2</a:t>
+              <a:t>2005/5/15</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>020/7/7</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7619,6 +7601,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A272A3-6A35-4435-BBBD-A408E470E504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="2362200"/>
+          <a:ext cx="2965450" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E7C5F-0A8E-447A-998E-6037F89574CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5448300" y="3060700"/>
+          <a:ext cx="698500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8025,16 +8129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>121804</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128154</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8051,8 +8155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6235700" y="2724150"/>
-          <a:ext cx="2800350" cy="744104"/>
+          <a:off x="6299200" y="2559050"/>
+          <a:ext cx="2680854" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8154,46 +8258,6 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -8598,15 +8662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180396</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>5771</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>269876</xdr:colOff>
+      <xdr:colOff>277813</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8623,8 +8687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3037896" y="1801812"/>
-          <a:ext cx="2375480" cy="492125"/>
+          <a:off x="2863271" y="1635125"/>
+          <a:ext cx="2558042" cy="664586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8788,16 +8852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>265112</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8814,8 +8878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6265862" y="2738438"/>
-          <a:ext cx="2735263" cy="754062"/>
+          <a:off x="6305550" y="2362200"/>
+          <a:ext cx="2965450" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9316,15 +9380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>207113</xdr:colOff>
+      <xdr:colOff>121931</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123901</xdr:rowOff>
+      <xdr:rowOff>8475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>178110</xdr:colOff>
+      <xdr:colOff>240062</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107992</xdr:rowOff>
+      <xdr:rowOff>100672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9341,8 +9405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3072357" y="1750121"/>
-          <a:ext cx="2263192" cy="634578"/>
+          <a:off x="2987175" y="1634695"/>
+          <a:ext cx="2410326" cy="742684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9514,15 +9578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61950</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>240062</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9539,8 +9603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6322588" y="2826523"/>
-          <a:ext cx="2513206" cy="814659"/>
+          <a:off x="6305550" y="2362200"/>
+          <a:ext cx="2965450" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10010,13 +10074,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10033,8 +10097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3219450" y="2801937"/>
-          <a:ext cx="2320925" cy="1881187"/>
+          <a:off x="3219450" y="2767013"/>
+          <a:ext cx="2527300" cy="1916112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10105,6 +10169,15 @@
             </a:rPr>
             <a:t>名前（姓）、名前（名）</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -10120,8 +10193,20 @@
             </a:rPr>
             <a:t>カナ（姓）、カナ（名）</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -10134,6 +10219,33 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、性別、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アカウント権限</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -10211,15 +10323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>77209</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
+      <xdr:colOff>93084</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>79376</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10236,8 +10348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3220459" y="1476375"/>
-          <a:ext cx="2208792" cy="823336"/>
+          <a:off x="3236334" y="1420813"/>
+          <a:ext cx="2272292" cy="910648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10283,7 +10395,18 @@
             </a:rPr>
             <a:t>Table:account</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10414,14 +10537,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10438,8 +10561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6305550" y="2786062"/>
-          <a:ext cx="2505075" cy="777875"/>
+          <a:off x="6305550" y="2362200"/>
+          <a:ext cx="2965450" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10474,7 +10597,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント情報</a:t>
+            <a:t>アカウント更新、削除</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10492,37 +10615,22 @@
             <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>122237</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>249237</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10539,8 +10647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5551487" y="3094038"/>
-          <a:ext cx="698500" cy="0"/>
+          <a:off x="5813425" y="3062288"/>
+          <a:ext cx="409575" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12268,8 +12376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
@@ -15080,7 +15188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E64D77-A898-462C-ADF5-05CCB4FD0E5F}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I46"/>
     </sheetView>
   </sheetViews>
@@ -15667,7 +15775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AB40E6-F64D-48E7-94BC-74CD039FEA5B}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I46"/>
     </sheetView>
   </sheetViews>
@@ -17854,7 +17962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C3E067-3FDA-4F87-845B-CA485EFF5CC0}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14:M30"/>
     </sheetView>
   </sheetViews>
@@ -18908,7 +19016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E85DC9-80ED-45E2-83E3-02E0FA6357B9}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -19720,7 +19828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -21423,7 +21531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB215A8A-262B-4378-911B-80DF254C3D89}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -21889,7 +21997,8 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23578,7 +23687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC5D76-14EE-44BD-A458-DC3D561407CA}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -25257,8 +25366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20C6905-5646-42C3-830B-2201B58ED70D}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -25656,7 +25765,9 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="M7" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -26936,8 +27047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE97E4-1685-4FC2-96DA-82D77514B293}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D3" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -27335,9 +27446,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="M7" s="35"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -28617,8 +28726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56495A9D-BE22-4B1C-86FD-61E60923B3BE}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -28721,7 +28830,7 @@
       <c r="E3" s="109"/>
       <c r="F3" s="110"/>
       <c r="G3" s="108" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H3" s="109"/>
       <c r="I3" s="109"/>
@@ -29016,9 +29125,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="M7" s="35"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -30299,7 +30406,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -30849,7 +30956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642057A2-5338-4857-885E-23F81FBAB305}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
